--- a/Forms/efm02.xlsx
+++ b/Forms/efm02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\e-mis\src\e-mis\Ecoba.Web.Api\Forms\Efm02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\e-mis\src\e-mis\Ecoba.Web.Api\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02559E60-2AEB-4470-9587-CA8D998C13D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB2DE9D-7EDF-463F-AF6A-F03277E113D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="20712" windowHeight="11292" tabRatio="858" firstSheet="3" activeTab="9" xr2:uid="{99BB03EB-0BBB-4760-A339-0FAD76C13654}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="858" xr2:uid="{99BB03EB-0BBB-4760-A339-0FAD76C13654}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_baseline" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="6.Long_term_funding" sheetId="15" r:id="rId9"/>
     <sheet name="7.Other_activities" sheetId="16" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="125">
   <si>
     <t xml:space="preserve">Code: </t>
   </si>
@@ -426,7 +426,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -570,7 +570,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -1083,18 +1083,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E75BB5B-7DBA-4AEA-9530-2FEBECE0774D}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B15" sqref="B15"/>
+      <selection pane="topRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.59765625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="64.19921875" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.59765625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="64.21875" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" style="36" customWidth="1"/>
     <col min="4" max="4" width="65" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="16" width="12.59765625" style="25" customWidth="1"/>
+    <col min="5" max="16" width="12.5546875" style="25" customWidth="1"/>
     <col min="17" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -3263,18 +3263,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6995CB41-60A5-4A4C-AB6B-9D5D39CE9669}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.59765625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="48.19921875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="4.59765625" style="36" customWidth="1"/>
-    <col min="4" max="4" width="52.19921875" style="36" customWidth="1"/>
-    <col min="5" max="16" width="12.59765625" style="25" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="48.21875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="52.21875" style="36" customWidth="1"/>
+    <col min="5" max="16" width="12.5546875" style="25" customWidth="1"/>
     <col min="17" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
@@ -3305,16 +3305,18 @@
       <c r="D3" s="41"/>
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
+      <c r="A4" s="6" t="str">
+        <f>Overview_baseline!A4</f>
+        <v xml:space="preserve">Date of data: </v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="41"/>
       <c r="D4" s="41"/>
     </row>
     <row r="5" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>2</v>
+      <c r="A5" s="6" t="str">
+        <f>Overview_baseline!A5</f>
+        <v>Date of report:</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="41"/>
@@ -3336,7 +3338,7 @@
       </c>
       <c r="D7" s="43"/>
     </row>
-    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>5</v>
       </c>
@@ -5111,11 +5113,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.59765625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="64.19921875" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.59765625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="64.21875" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" style="36" customWidth="1"/>
     <col min="4" max="4" width="65" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="16" width="12.59765625" style="25" customWidth="1"/>
+    <col min="5" max="16" width="12.5546875" style="25" customWidth="1"/>
     <col min="17" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
@@ -5175,7 +5177,7 @@
       </c>
       <c r="D7" s="43"/>
     </row>
-    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>5</v>
       </c>
@@ -7291,11 +7293,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.59765625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="64.19921875" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.59765625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="64.21875" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" style="36" customWidth="1"/>
     <col min="4" max="4" width="65" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="16" width="12.59765625" style="25" customWidth="1"/>
+    <col min="5" max="16" width="12.5546875" style="25" customWidth="1"/>
     <col min="17" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
@@ -7355,7 +7357,7 @@
       </c>
       <c r="D7" s="43"/>
     </row>
-    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>5</v>
       </c>
@@ -9466,16 +9468,16 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD1048576"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.59765625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="43.09765625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="4.59765625" style="36" customWidth="1"/>
-    <col min="4" max="4" width="40.19921875" style="36" customWidth="1"/>
-    <col min="5" max="16" width="12.59765625" style="25" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="43.109375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="40.21875" style="36" customWidth="1"/>
+    <col min="5" max="16" width="12.5546875" style="25" customWidth="1"/>
     <col min="17" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
@@ -9506,16 +9508,18 @@
       <c r="D3" s="41"/>
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
+      <c r="A4" s="6" t="str">
+        <f>Overview_baseline!A4</f>
+        <v xml:space="preserve">Date of data: </v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="41"/>
       <c r="D4" s="41"/>
     </row>
     <row r="5" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>2</v>
+      <c r="A5" s="6" t="str">
+        <f>Overview_baseline!A5</f>
+        <v>Date of report:</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="41"/>
@@ -9537,7 +9541,7 @@
       </c>
       <c r="D7" s="43"/>
     </row>
-    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>5</v>
       </c>
@@ -11307,16 +11311,16 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD1048576"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.59765625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="48.19921875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="4.59765625" style="36" customWidth="1"/>
-    <col min="4" max="4" width="52.19921875" style="36" customWidth="1"/>
-    <col min="5" max="16" width="12.59765625" style="25" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="48.21875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="52.21875" style="36" customWidth="1"/>
+    <col min="5" max="16" width="12.5546875" style="25" customWidth="1"/>
     <col min="17" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
@@ -11347,16 +11351,18 @@
       <c r="D3" s="41"/>
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
+      <c r="A4" s="6" t="str">
+        <f>Overview_baseline!A4</f>
+        <v xml:space="preserve">Date of data: </v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="41"/>
       <c r="D4" s="41"/>
     </row>
     <row r="5" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>2</v>
+      <c r="A5" s="6" t="str">
+        <f>Overview_baseline!A5</f>
+        <v>Date of report:</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="41"/>
@@ -11378,7 +11384,7 @@
       </c>
       <c r="D7" s="43"/>
     </row>
-    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>5</v>
       </c>
@@ -13148,16 +13154,16 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.59765625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="48.19921875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="4.59765625" style="36" customWidth="1"/>
-    <col min="4" max="4" width="52.19921875" style="36" customWidth="1"/>
-    <col min="5" max="16" width="12.59765625" style="25" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="48.21875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="52.21875" style="36" customWidth="1"/>
+    <col min="5" max="16" width="12.5546875" style="25" customWidth="1"/>
     <col min="17" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
@@ -13188,16 +13194,18 @@
       <c r="D3" s="41"/>
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
+      <c r="A4" s="6" t="str">
+        <f>Overview_baseline!A4</f>
+        <v xml:space="preserve">Date of data: </v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="41"/>
       <c r="D4" s="41"/>
     </row>
     <row r="5" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>2</v>
+      <c r="A5" s="6" t="str">
+        <f>Overview_baseline!A5</f>
+        <v>Date of report:</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="41"/>
@@ -13219,7 +13227,7 @@
       </c>
       <c r="D7" s="43"/>
     </row>
-    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>5</v>
       </c>
@@ -14989,16 +14997,16 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD1048576"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.59765625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="48.19921875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="4.59765625" style="36" customWidth="1"/>
-    <col min="4" max="4" width="52.19921875" style="36" customWidth="1"/>
-    <col min="5" max="16" width="12.59765625" style="25" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="48.21875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="52.21875" style="36" customWidth="1"/>
+    <col min="5" max="16" width="12.5546875" style="25" customWidth="1"/>
     <col min="17" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
@@ -15029,16 +15037,18 @@
       <c r="D3" s="41"/>
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
+      <c r="A4" s="6" t="str">
+        <f>Overview_baseline!A4</f>
+        <v xml:space="preserve">Date of data: </v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="41"/>
       <c r="D4" s="41"/>
     </row>
     <row r="5" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>2</v>
+      <c r="A5" s="6" t="str">
+        <f>Overview_baseline!A5</f>
+        <v>Date of report:</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="41"/>
@@ -15060,7 +15070,7 @@
       </c>
       <c r="D7" s="43"/>
     </row>
-    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>5</v>
       </c>
@@ -16830,16 +16840,16 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD1048576"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.59765625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="48.19921875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="4.59765625" style="36" customWidth="1"/>
-    <col min="4" max="4" width="52.19921875" style="36" customWidth="1"/>
-    <col min="5" max="16" width="12.59765625" style="25" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="48.21875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="52.21875" style="36" customWidth="1"/>
+    <col min="5" max="16" width="12.5546875" style="25" customWidth="1"/>
     <col min="17" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
@@ -16870,16 +16880,18 @@
       <c r="D3" s="41"/>
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
+      <c r="A4" s="6" t="str">
+        <f>Overview_baseline!A4</f>
+        <v xml:space="preserve">Date of data: </v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="41"/>
       <c r="D4" s="41"/>
     </row>
     <row r="5" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>2</v>
+      <c r="A5" s="6" t="str">
+        <f>Overview_baseline!A5</f>
+        <v>Date of report:</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="41"/>
@@ -16901,7 +16913,7 @@
       </c>
       <c r="D7" s="43"/>
     </row>
-    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>5</v>
       </c>
@@ -18671,16 +18683,16 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A10" sqref="A1:XFD1048576"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.59765625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="48.19921875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="4.59765625" style="36" customWidth="1"/>
-    <col min="4" max="4" width="52.19921875" style="36" customWidth="1"/>
-    <col min="5" max="16" width="12.59765625" style="25" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="48.21875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="52.21875" style="36" customWidth="1"/>
+    <col min="5" max="16" width="12.5546875" style="25" customWidth="1"/>
     <col min="17" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
@@ -18711,16 +18723,18 @@
       <c r="D3" s="41"/>
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
+      <c r="A4" s="6" t="str">
+        <f>Overview_baseline!A4</f>
+        <v xml:space="preserve">Date of data: </v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="41"/>
       <c r="D4" s="41"/>
     </row>
     <row r="5" spans="1:16" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>2</v>
+      <c r="A5" s="6" t="str">
+        <f>Overview_baseline!A5</f>
+        <v>Date of report:</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="41"/>
@@ -18742,7 +18756,7 @@
       </c>
       <c r="D7" s="43"/>
     </row>
-    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>5</v>
       </c>
